--- a/lang2prop.xlsx
+++ b/lang2prop.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="10140" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="solve" sheetId="1" r:id="rId1"/>
-    <sheet name="eql" sheetId="2" r:id="rId2"/>
+    <sheet name="solve (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="solve" sheetId="1" r:id="rId2"/>
+    <sheet name="eql" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -100,11 +101,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -116,14 +117,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,11 +146,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,22 +246,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,84 +259,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,7 +269,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,31 +287,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,139 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,15 +460,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,6 +480,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -503,11 +498,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,26 +528,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,16 +551,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,142 +578,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1041,7 +1034,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1053,191 +1046,177 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>132000</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>19000</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>611000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>153000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>52000</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>65000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>215000</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>3000</v>
-      </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>204000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>193000</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>3000</v>
-      </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>61000</v>
-      </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>113000</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>91000</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>91000</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>8000</v>
-      </c>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>12000</v>
-      </c>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="3" t="s">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="4" t="s">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="3" t="s">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="B26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1248,10 +1227,226 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="11.4416666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>611000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>153000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>204000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>193000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>113000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>91000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>91000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1261,103 +1456,95 @@
         <v>2</v>
       </c>
       <c r="B1" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
         <v>28</v>
       </c>
-      <c r="B5" s="1">
-        <v>29</v>
-      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
         <v>32</v>
       </c>
-      <c r="B8" s="1">
-        <v>33</v>
-      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>25</v>
+      <c r="A9" s="1">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>13</v>
+      <c r="B12" s="1">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
